--- a/Apollo247/Apollo247/src/test/resources/ExcelData/SortBy.xlsx
+++ b/Apollo247/Apollo247/src/test/resources/ExcelData/SortBy.xlsx
@@ -3,54 +3,43 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TRAINING\JAVA\Apollo247\Apollo247\src\test\resources\ExcelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFF846-8042-4B14-B381-9D847D56EF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69CB1622-EEA3-459A-BE19-8E84711343EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D50287EA-BE48-423E-8339-6F3FFC6A7B90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{D50287EA-BE48-423E-8339-6F3FFC6A7B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>SortOption</t>
-  </si>
-  <si>
-    <t>Price: Low to High</t>
-  </si>
-  <si>
-    <t>Price: High to Low</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Top Deals</t>
   </si>
   <si>
     <t>CBC Test (Complete Blood Count)</t>
+  </si>
+  <si>
+    <t>Checkboxes</t>
+  </si>
+  <si>
+    <t>SearchTest</t>
+  </si>
+  <si>
+    <t>CBC Test(Complete Blood Count)</t>
+  </si>
+  <si>
+    <t>Thyroid Profile (T3 T4 TSH) Test</t>
   </si>
 </sst>
 </file>
@@ -433,9 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA29B265-0623-4361-B9FD-FE413374EEAF}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -444,27 +431,50 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C1F41F-71E2-4CFA-896A-FD05C54E9A6A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
